--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_40.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_40.xlsx
@@ -508,246 +508,246 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_1</t>
+          <t>model_1_40_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996001371519385</v>
+        <v>0.9450159497454496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8222725959438628</v>
+        <v>0.7166564365755896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8134228877934783</v>
+        <v>0.7878680525188058</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981745562975293</v>
+        <v>0.9719165927013913</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001664439780127582</v>
+        <v>0.1765145921580186</v>
       </c>
       <c r="G2" t="n">
-        <v>1.188463969282837</v>
+        <v>1.894719713296176</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6673755120001783</v>
+        <v>0.7587836760231965</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003157993299379424</v>
+        <v>0.06949935640101974</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1132792029307246</v>
+        <v>0.9571114819599678</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04079754625130758</v>
+        <v>0.4201363970879203</v>
       </c>
       <c r="L2" t="n">
-        <v>1.025591222275935</v>
+        <v>0.9251281017810377</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04144006682218152</v>
+        <v>0.4267531253597387</v>
       </c>
       <c r="N2" t="n">
-        <v>142.7965333611195</v>
+        <v>37.46870346181986</v>
       </c>
       <c r="O2" t="n">
-        <v>284.1317059043359</v>
+        <v>74.43328705004569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_0</t>
+          <t>model_1_40_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995880099458697</v>
+        <v>0.9449419828641119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8222442210865375</v>
+        <v>0.7164213266159778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8133816054794522</v>
+        <v>0.7878815330857279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9980971457912838</v>
+        <v>0.9725046120631553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001714919599147053</v>
+        <v>0.1767520470896227</v>
       </c>
       <c r="G3" t="n">
-        <v>1.188653712084426</v>
+        <v>1.896291894678682</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6675231764437635</v>
+        <v>0.7587354568169637</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003291912444458308</v>
+        <v>0.06804415665408728</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1161112032220065</v>
+        <v>0.9532550210984433</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04141158773999196</v>
+        <v>0.4204188947818862</v>
       </c>
       <c r="L3" t="n">
-        <v>1.026367363464338</v>
+        <v>0.9250273809213438</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04206377885049638</v>
+        <v>0.4270400721099906</v>
       </c>
       <c r="N3" t="n">
-        <v>142.736778160854</v>
+        <v>37.4660147848718</v>
       </c>
       <c r="O3" t="n">
-        <v>284.0719507040704</v>
+        <v>74.43059837309762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_8</t>
+          <t>model_1_40_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996690688524142</v>
+        <v>0.944865655731987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8222245945794827</v>
+        <v>0.7161843214961479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8136491903785898</v>
+        <v>0.787888616865643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981322672097324</v>
+        <v>0.9730994946740743</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001377509736639242</v>
+        <v>0.1769970791040932</v>
       </c>
       <c r="G4" t="n">
-        <v>1.188784954627472</v>
+        <v>1.897876749006293</v>
       </c>
       <c r="H4" t="n">
-        <v>0.666566040775012</v>
+        <v>0.7587101185469487</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003231152858186189</v>
+        <v>0.06657197209494824</v>
       </c>
       <c r="J4" t="n">
-        <v>0.117204349192946</v>
+        <v>0.9492283311815849</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03711481828918528</v>
+        <v>0.4207102079865583</v>
       </c>
       <c r="L4" t="n">
-        <v>1.021179593445488</v>
+        <v>0.9249234461031313</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03769933957603315</v>
+        <v>0.42733597320643</v>
       </c>
       <c r="N4" t="n">
-        <v>143.1749558972431</v>
+        <v>37.46324409756247</v>
       </c>
       <c r="O4" t="n">
-        <v>284.5101284404595</v>
+        <v>74.42782768578829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_7</t>
+          <t>model_1_40_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999665646854546</v>
+        <v>0.9447869738287831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8222198015622788</v>
+        <v>0.7159454936759615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.813609060212325</v>
+        <v>0.787888696300558</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9981240392132593</v>
+        <v>0.9737021653857189</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001391753894122261</v>
+        <v>0.177249670609993</v>
       </c>
       <c r="G5" t="n">
-        <v>1.188817005555584</v>
+        <v>1.89947379173958</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6667095840528605</v>
+        <v>0.7587098344128635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003245387182528369</v>
+        <v>0.06508051394901584</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1175827387945225</v>
+        <v>0.9450172148118243</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03730621790160805</v>
+        <v>0.4210102975106345</v>
       </c>
       <c r="L5" t="n">
-        <v>1.021398601309059</v>
+        <v>0.9248163047881302</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03789375354102216</v>
+        <v>0.4276407888405308</v>
       </c>
       <c r="N5" t="n">
-        <v>143.1543810658009</v>
+        <v>37.4603919438147</v>
       </c>
       <c r="O5" t="n">
-        <v>284.4895536090173</v>
+        <v>74.42497553204052</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_9</t>
+          <t>model_1_40_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996639249100278</v>
+        <v>0.9447057727462939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8222001443916835</v>
+        <v>0.7157048199912617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8136079838098725</v>
+        <v>0.7878811211891709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9979813442984465</v>
+        <v>0.9743127514108555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001398921534149954</v>
+        <v>0.17751034940488</v>
       </c>
       <c r="G6" t="n">
-        <v>1.188948453145868</v>
+        <v>1.901083177777368</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6667134342820196</v>
+        <v>0.7587369301470654</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003492247485162867</v>
+        <v>0.06356946739674968</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1222096240582505</v>
+        <v>0.9405990276931863</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03740215948511468</v>
+        <v>0.4213197709636707</v>
       </c>
       <c r="L6" t="n">
-        <v>1.021508805758224</v>
+        <v>0.9247057331013363</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03799120610856262</v>
+        <v>0.4279551361910924</v>
       </c>
       <c r="N6" t="n">
-        <v>143.1441073439394</v>
+        <v>37.45745273052012</v>
       </c>
       <c r="O6" t="n">
-        <v>284.4792798871558</v>
+        <v>74.42203631874594</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996339077104187</v>
+        <v>0.9446218324021499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8221934450530652</v>
+        <v>0.715462148958286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8134745070835762</v>
+        <v>0.7878651563664171</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9980580900091462</v>
+        <v>0.9749306267149773</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001523868928886722</v>
+        <v>0.1777798220163661</v>
       </c>
       <c r="G7" t="n">
-        <v>1.188993251654057</v>
+        <v>1.902705920092275</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6671908727925566</v>
+        <v>0.7587940353923621</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003359478427526207</v>
+        <v>0.06204038171580085</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1200197942365617</v>
+        <v>0.9360525007436754</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03903676381165224</v>
+        <v>0.4216394455175727</v>
       </c>
       <c r="L7" t="n">
-        <v>1.023429906533202</v>
+        <v>0.924591431356119</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0396515538192383</v>
+        <v>0.428279845299661</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9730056601676</v>
+        <v>37.45441889862907</v>
       </c>
       <c r="O7" t="n">
-        <v>284.308178203384</v>
+        <v>74.41900248685489</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_5</t>
+          <t>model_1_40_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996430441317083</v>
+        <v>0.944534949426738</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8221927880328201</v>
+        <v>0.715217374819987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8135224497241665</v>
+        <v>0.7878400367741614</v>
       </c>
       <c r="E8" t="n">
-        <v>0.998130713738034</v>
+        <v>0.9755556642620204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001485838331355214</v>
+        <v>0.1780587413193151</v>
       </c>
       <c r="G8" t="n">
-        <v>1.18899764515146</v>
+        <v>1.904342725882161</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6670193847470387</v>
+        <v>0.7588838867173429</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003233840343539922</v>
+        <v>0.06049357128841663</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1171880462839936</v>
+        <v>0.9315509010046895</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03854657353585678</v>
+        <v>0.4219700715919497</v>
       </c>
       <c r="L8" t="n">
-        <v>1.022845175570666</v>
+        <v>0.9244731226236432</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03915364353660956</v>
+        <v>0.4286156784042046</v>
       </c>
       <c r="N8" t="n">
-        <v>143.0235522662342</v>
+        <v>37.45128355143728</v>
       </c>
       <c r="O8" t="n">
-        <v>284.3587248094506</v>
+        <v>74.41586713966309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_6</t>
+          <t>model_1_40_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996454861054875</v>
+        <v>0.9444446451883761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8221649090593318</v>
+        <v>0.7149702072567945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8134557939400566</v>
+        <v>0.7878046626527764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9981441597115263</v>
+        <v>0.9761861211831789</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001475673550306452</v>
+        <v>0.1783486438588842</v>
       </c>
       <c r="G9" t="n">
-        <v>1.189184071975548</v>
+        <v>1.905995536515331</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6672578086218757</v>
+        <v>0.7590104178984276</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003210578988432192</v>
+        <v>0.05893334927571053</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1159170202532044</v>
+        <v>0.9275954526426994</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03841449661659583</v>
+        <v>0.4223134426689306</v>
       </c>
       <c r="L9" t="n">
-        <v>1.022688889248798</v>
+        <v>0.9243501551501292</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03901948653789873</v>
+        <v>0.4289644572324029</v>
       </c>
       <c r="N9" t="n">
-        <v>143.0372814982901</v>
+        <v>37.44802994205026</v>
       </c>
       <c r="O9" t="n">
-        <v>284.3724540415065</v>
+        <v>74.41261353027608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_3</t>
+          <t>model_1_40_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996135688245493</v>
+        <v>0.944350385835025</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8221000371634171</v>
+        <v>0.7147201675755287</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8134991717338738</v>
+        <v>0.7877578685503515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979071374797228</v>
+        <v>0.9768198887324612</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00160853008430203</v>
+        <v>0.1786512434534362</v>
       </c>
       <c r="G10" t="n">
-        <v>1.189617870642238</v>
+        <v>1.907667553015282</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6671026487685807</v>
+        <v>0.7591777976895239</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003620624293486564</v>
+        <v>0.05736493429263442</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1232040372425942</v>
+        <v>0.9235961020548041</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04010648431740222</v>
+        <v>0.4226715550559751</v>
       </c>
       <c r="L10" t="n">
-        <v>1.024731595228843</v>
+        <v>0.9242218019881191</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04073812135362564</v>
+        <v>0.4293282095315622</v>
       </c>
       <c r="N10" t="n">
-        <v>142.8648690162655</v>
+        <v>37.44463946852044</v>
       </c>
       <c r="O10" t="n">
-        <v>284.2000415594819</v>
+        <v>74.40922305674626</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_2</t>
+          <t>model_1_40_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999598436605206</v>
+        <v>0.9442513327315034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8220309787817238</v>
+        <v>0.7144666791337597</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8134162383782808</v>
+        <v>0.7876983361558882</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9978340333209982</v>
+        <v>0.9774532516032545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001671518351300921</v>
+        <v>0.1789692323627498</v>
       </c>
       <c r="G11" t="n">
-        <v>1.190079664358605</v>
+        <v>1.909362631392599</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6673992965727842</v>
+        <v>0.759390741612632</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003747093514693889</v>
+        <v>0.0557975207868445</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1250106718438216</v>
+        <v>0.9195138035116477</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04088420662433015</v>
+        <v>0.4230475533113857</v>
       </c>
       <c r="L11" t="n">
-        <v>1.025700057266818</v>
+        <v>0.9240869211663025</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0415280920094506</v>
+        <v>0.4297101293836352</v>
       </c>
       <c r="N11" t="n">
-        <v>142.7880457464455</v>
+        <v>37.44108274831427</v>
       </c>
       <c r="O11" t="n">
-        <v>284.123218289662</v>
+        <v>74.40566633654009</v>
       </c>
     </row>
   </sheetData>
